--- a/all_DE/Lena-Sophie Müller.xlsx
+++ b/all_DE/Lena-Sophie Müller.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\.spyder-py3\Lena-Sophie Müller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\all_DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C0869F-6180-4238-BCF6-21DD5705B074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D4D7DA-4139-46B0-8C86-277C040757B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>title</t>
   </si>
@@ -276,9 +276,6 @@
 Bayerns Digitalministerin Judith Gerlach freute sich sehr über die Einreichungen: „Schon jetzt ist unser Digitalpreis b.digital ein großer Erfolg für die Inklusion.
 Die Teilhabe schreiben wir auch bei der Entscheidung über die Sieger groß und treffen sie deshalb gemeinsam mit den Bürgerinnen und Bürgern.
 Voten Sie mit und unterstützen Sie Ihren Favoriten!“Die Abstimmung läuft bis zum 31.</t>
-  </si>
-  <si>
-    <t>Flags</t>
   </si>
 </sst>
 </file>
@@ -321,7 +318,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -344,32 +341,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -651,15 +634,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,11 +667,8 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -713,11 +693,8 @@
       <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -742,11 +719,8 @@
       <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -771,11 +745,8 @@
       <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -800,11 +771,8 @@
       <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -829,11 +797,8 @@
       <c r="I6" t="s">
         <v>35</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -858,11 +823,8 @@
       <c r="I7" t="s">
         <v>41</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -887,11 +849,8 @@
       <c r="I8" t="s">
         <v>47</v>
       </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -916,11 +875,8 @@
       <c r="I9" t="s">
         <v>53</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -945,11 +901,8 @@
       <c r="I10" t="s">
         <v>59</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -974,11 +927,8 @@
       <c r="I11" t="s">
         <v>65</v>
       </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1005,9 +955,6 @@
       </c>
       <c r="I12" t="s">
         <v>71</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
